--- a/import/prep/excel_original_receipt/64-9ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ เมย64 (1-30มิย64).xlsx
+++ b/import/prep/excel_original_receipt/64-9ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ เมย64 (1-30มิย64).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Detail/WMA/Excel(billing)/excel (TEST)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thansitar/Downloads/excel_original_receipt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B8789AEF-33CB-6647-B369-AA73B3C6838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{11370D87-14DE-5C48-8E10-67A98E11C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -12111,6 +12111,24 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12139,24 +12157,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -53253,8 +53253,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -65868,8 +65868,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA264"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J235" sqref="J235"/>
+    <sheetView topLeftCell="A234" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F243" sqref="F243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -65899,24 +65899,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="190" t="s">
         <v>3717</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
       <c r="Q1" s="46"/>
       <c r="R1" s="153"/>
       <c r="S1" s="153"/>
@@ -65958,7 +65958,7 @@
       <c r="C3" s="175" t="s">
         <v>3049</v>
       </c>
-      <c r="D3" s="185" t="s">
+      <c r="D3" s="191" t="s">
         <v>3050</v>
       </c>
       <c r="E3" s="175" t="s">
@@ -65973,43 +65973,43 @@
       <c r="H3" s="178" t="s">
         <v>3716</v>
       </c>
-      <c r="I3" s="186" t="s">
+      <c r="I3" s="192" t="s">
         <v>3053</v>
       </c>
-      <c r="J3" s="188" t="s">
+      <c r="J3" s="194" t="s">
         <v>3054</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="196" t="s">
         <v>3055</v>
       </c>
-      <c r="L3" s="188" t="s">
+      <c r="L3" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="188" t="s">
+      <c r="M3" s="194" t="s">
         <v>3056</v>
       </c>
-      <c r="N3" s="188" t="s">
+      <c r="N3" s="194" t="s">
         <v>3057</v>
       </c>
       <c r="O3" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="192" t="s">
+      <c r="P3" s="198" t="s">
         <v>3058</v>
       </c>
-      <c r="Q3" s="196" t="s">
+      <c r="Q3" s="186" t="s">
         <v>714</v>
       </c>
-      <c r="R3" s="198">
+      <c r="R3" s="188">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="199" t="s">
+      <c r="S3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="194" t="s">
+      <c r="T3" s="184" t="s">
         <v>3058</v>
       </c>
-      <c r="U3" s="195" t="s">
+      <c r="U3" s="185" t="s">
         <v>3059</v>
       </c>
     </row>
@@ -66017,28 +66017,28 @@
       <c r="A4" s="175"/>
       <c r="B4" s="175"/>
       <c r="C4" s="175"/>
-      <c r="D4" s="185"/>
+      <c r="D4" s="191"/>
       <c r="E4" s="175"/>
       <c r="F4" s="179"/>
       <c r="G4" s="54" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="179"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
       <c r="O4" s="152" t="s">
         <v>400</v>
       </c>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="199"/>
-      <c r="T4" s="194"/>
-      <c r="U4" s="195"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="187"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="185"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
@@ -80897,11 +80897,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -80917,6 +80912,11 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -80926,8 +80926,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -80958,24 +80958,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="190" t="s">
         <v>3370</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
       <c r="Q1" s="46"/>
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
@@ -81019,7 +81019,7 @@
       <c r="C3" s="175" t="s">
         <v>3049</v>
       </c>
-      <c r="D3" s="185" t="s">
+      <c r="D3" s="191" t="s">
         <v>3050</v>
       </c>
       <c r="E3" s="175" t="s">
@@ -81034,43 +81034,43 @@
       <c r="H3" s="178" t="s">
         <v>3064</v>
       </c>
-      <c r="I3" s="186" t="s">
+      <c r="I3" s="192" t="s">
         <v>3053</v>
       </c>
-      <c r="J3" s="188" t="s">
+      <c r="J3" s="194" t="s">
         <v>3054</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="196" t="s">
         <v>3055</v>
       </c>
-      <c r="L3" s="188" t="s">
+      <c r="L3" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="188" t="s">
+      <c r="M3" s="194" t="s">
         <v>3056</v>
       </c>
-      <c r="N3" s="188" t="s">
+      <c r="N3" s="194" t="s">
         <v>3057</v>
       </c>
       <c r="O3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="192" t="s">
+      <c r="P3" s="198" t="s">
         <v>3058</v>
       </c>
       <c r="Q3" s="200" t="s">
         <v>714</v>
       </c>
-      <c r="R3" s="198">
+      <c r="R3" s="188">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="199" t="s">
+      <c r="S3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="194" t="s">
+      <c r="T3" s="184" t="s">
         <v>3058</v>
       </c>
-      <c r="U3" s="195" t="s">
+      <c r="U3" s="185" t="s">
         <v>3059</v>
       </c>
       <c r="Y3" s="10"/>
@@ -81079,28 +81079,28 @@
       <c r="A4" s="175"/>
       <c r="B4" s="175"/>
       <c r="C4" s="175"/>
-      <c r="D4" s="185"/>
+      <c r="D4" s="191"/>
       <c r="E4" s="175"/>
       <c r="F4" s="179"/>
       <c r="G4" s="54" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="179"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
       <c r="O4" s="55" t="s">
         <v>400</v>
       </c>
       <c r="P4" s="201"/>
       <c r="Q4" s="200"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="199"/>
-      <c r="T4" s="194"/>
-      <c r="U4" s="195"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="185"/>
       <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -85993,6 +85993,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -86003,16 +86013,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
